--- a/biology/Botanique/Amorpha/Amorpha.xlsx
+++ b/biology/Botanique/Amorpha/Amorpha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Amorpha ou faux-indigo est un genre de plantes de la famille des pois ou Fabaceae.
 Toutes les espèces sont originaires d’Amérique du Nord, et prospèrent du sud du Canada au nord du Mexique en passant par la plus grande partie du territoire des États-Unis.
-Leur nom scientifique Amorpha vient du grec et signifie « déformée » parce que les fleurs de ce genre n'ont qu’un seul pétale contrairement aux légumineuses habituelles de la sous-famille des Faboideae[1].
+Leur nom scientifique Amorpha vient du grec et signifie « déformée » parce que les fleurs de ce genre n'ont qu’un seul pétale contrairement aux légumineuses habituelles de la sous-famille des Faboideae.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description de quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le faux-indigo du désert, ou buisson à indigo (Amorpha fruticosa), est un arbrisseau mellifère dont la taille adulte varie entre 3 m et 5 m. C’est une plante invasive présente partout aux États-Unis, et qui a été introduite en Europe centrale et méditerranéenne.
 L’herbe à plomb (Amorpha canescens) est une herbacée de la Prairie (Amérique du Nord). Cet arbrisseau buissonant est une importante légumineuse autochtone de la Prairie. Elle est souvent associée aux herbes appelées Schizachyrium. Les Amérindiens en utilisaient les feuilles pour fumer ou boire en infusion.
@@ -547,7 +561,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Amorpha apiculata
 Amorpha californica - faux-indigo de Californie, ou fausse locuste
